--- a/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 13,82</t>
+          <t>-10,59; 13,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 21,94</t>
+          <t>-6,57; 21,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 27,42</t>
+          <t>1,61; 26,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 4,43</t>
+          <t>-18,68; 3,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 52,32</t>
+          <t>-26,43; 52,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 63,34</t>
+          <t>-13,63; 61,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 76,55</t>
+          <t>2,51; 74,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 7,27</t>
+          <t>-24,29; 5,96</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 14,65</t>
+          <t>3,04; 14,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 12,01</t>
+          <t>-0,32; 11,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,44</t>
+          <t>2,59; 14,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 3,62</t>
+          <t>-6,66; 3,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 43,55</t>
+          <t>7,58; 41,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 30,21</t>
+          <t>-0,35; 28,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 37,88</t>
+          <t>5,77; 39,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 5,3</t>
+          <t>-8,76; 5,31</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 17,59</t>
+          <t>8,07; 17,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,86</t>
+          <t>7,97; 17,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 14,09</t>
+          <t>4,85; 14,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; -2,57</t>
+          <t>-11,75; -2,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,37; 52,32</t>
+          <t>20,63; 49,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 45,15</t>
+          <t>19,32; 47,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 36,99</t>
+          <t>11,09; 36,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -3,5</t>
+          <t>-14,82; -3,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,59</t>
+          <t>5,67; 16,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 13,77</t>
+          <t>3,3; 14,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 13,08</t>
+          <t>2,67; 13,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 11,89</t>
+          <t>-2,78; 10,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 44,6</t>
+          <t>13,32; 45,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 37,78</t>
+          <t>7,45; 37,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 38,14</t>
+          <t>6,68; 39,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 16,24</t>
+          <t>-3,58; 14,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 16,48</t>
+          <t>7,66; 16,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,06</t>
+          <t>3,53; 12,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 13,03</t>
+          <t>4,63; 13,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,33; -3,8</t>
+          <t>-12,24; -3,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,18; 45,39</t>
+          <t>18,55; 45,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 29,88</t>
+          <t>7,82; 31,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,69; 31,86</t>
+          <t>9,81; 33,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -5,16</t>
+          <t>-15,8; -5,19</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,58</t>
+          <t>8,91; 13,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,6</t>
+          <t>6,86; 12,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,35</t>
+          <t>6,34; 11,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,19</t>
+          <t>-6,68; -1,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 37,18</t>
+          <t>22,94; 37,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,86; 29,22</t>
+          <t>16,2; 30,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,75; 28,45</t>
+          <t>15,14; 28,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -1,57</t>
+          <t>-8,75; -1,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 13,97</t>
+          <t>-9,36; 14,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 21,81</t>
+          <t>-6,17; 22,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 26,72</t>
+          <t>1,52; 27,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 52,83</t>
+          <t>-23,34; 52,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 61,56</t>
+          <t>-13,16; 64,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 74,71</t>
+          <t>1,64; 76,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 14,1</t>
+          <t>2,91; 14,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 11,75</t>
+          <t>0,23; 12,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,75</t>
+          <t>3,02; 14,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 41,61</t>
+          <t>7,23; 42,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 28,92</t>
+          <t>0,42; 31,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 39,08</t>
+          <t>6,88; 38,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 17,1</t>
+          <t>7,94; 17,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 17,09</t>
+          <t>7,79; 17,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 14,32</t>
+          <t>4,85; 13,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,63; 49,71</t>
+          <t>20,54; 49,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 47,21</t>
+          <t>19,1; 47,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 36,94</t>
+          <t>11,27; 35,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 16,92</t>
+          <t>6,06; 17,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 14,1</t>
+          <t>4,0; 14,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 13,52</t>
+          <t>2,88; 13,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,32; 45,66</t>
+          <t>14,14; 46,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 37,89</t>
+          <t>9,54; 39,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 39,4</t>
+          <t>7,2; 39,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 16,45</t>
+          <t>7,61; 16,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,57</t>
+          <t>3,58; 12,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 13,57</t>
+          <t>3,83; 13,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,55; 45,91</t>
+          <t>18,41; 44,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 31,38</t>
+          <t>7,72; 30,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 33,44</t>
+          <t>8,07; 31,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,65</t>
+          <t>8,84; 13,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,02</t>
+          <t>6,71; 11,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,33</t>
+          <t>6,38; 11,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,94; 37,47</t>
+          <t>22,37; 37,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 30,45</t>
+          <t>16,05; 29,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,14; 28,41</t>
+          <t>14,82; 29,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 14,03</t>
+          <t>-10,32; 13,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 22,16</t>
+          <t>-5,4; 21,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 27,25</t>
+          <t>0,51; 27,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 3,59</t>
+          <t>-18,3; 4,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 52,63</t>
+          <t>-24,86; 52,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 64,29</t>
+          <t>-10,98; 63,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 76,41</t>
+          <t>1,17; 76,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 5,96</t>
+          <t>-24,34; 7,27</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 14,57</t>
+          <t>2,78; 14,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 12,29</t>
+          <t>0,13; 12,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 14,73</t>
+          <t>2,76; 14,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,64</t>
+          <t>-7,07; 3,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 42,88</t>
+          <t>6,85; 43,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 31,18</t>
+          <t>0,59; 30,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 38,2</t>
+          <t>6,29; 37,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 5,31</t>
+          <t>-9,39; 5,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 17,17</t>
+          <t>8,44; 17,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 17,23</t>
+          <t>8,02; 16,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,86</t>
+          <t>5,15; 14,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,75; -2,9</t>
+          <t>-11,76; -2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,54; 49,91</t>
+          <t>21,37; 52,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 47,1</t>
+          <t>19,16; 45,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 35,85</t>
+          <t>12,02; 36,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -3,95</t>
+          <t>-14,77; -3,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 17,25</t>
+          <t>6,45; 16,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 14,34</t>
+          <t>3,1; 13,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 13,31</t>
+          <t>2,92; 13,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 10,91</t>
+          <t>-2,64; 11,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 46,63</t>
+          <t>15,24; 44,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 39,04</t>
+          <t>8,17; 37,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 39,39</t>
+          <t>7,68; 38,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 14,54</t>
+          <t>-3,39; 16,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,61; 16,16</t>
+          <t>7,83; 16,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,41</t>
+          <t>2,96; 12,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,15</t>
+          <t>3,96; 13,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -3,85</t>
+          <t>-12,33; -3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,41; 44,57</t>
+          <t>19,18; 45,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 30,14</t>
+          <t>6,53; 29,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,07; 31,37</t>
+          <t>8,69; 31,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -5,19</t>
+          <t>-15,76; -5,16</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,76</t>
+          <t>8,68; 13,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,49</t>
+          <t>6,63; 11,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,53</t>
+          <t>6,59; 11,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -1,24</t>
+          <t>-6,85; -1,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 37,43</t>
+          <t>22,0; 37,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,05; 29,13</t>
+          <t>15,86; 29,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,82; 29,04</t>
+          <t>15,75; 28,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -1,66</t>
+          <t>-8,92; -1,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,19</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,72%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 13,82</t>
+          <t>9,28; 19,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 21,94</t>
+          <t>3,92; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 27,42</t>
+          <t>6,91; 17,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 4,43</t>
+          <t>-9,23; 6,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 52,32</t>
+          <t>18,3; 42,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 63,34</t>
+          <t>6,16; 23,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 76,55</t>
+          <t>12,57; 35,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 7,27</t>
+          <t>-19,29; 16,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>16,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>50,71%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 14,65</t>
+          <t>11,94; 21,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 12,01</t>
+          <t>12,36; 21,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,44</t>
+          <t>9,16; 17,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 3,62</t>
+          <t>6,73; 32,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 43,55</t>
+          <t>23,77; 46,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 30,21</t>
+          <t>21,64; 40,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 37,88</t>
+          <t>17,21; 36,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 5,3</t>
+          <t>16,27; 186,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,69</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>17,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>32,91%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 17,59</t>
+          <t>9,37; 19,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,86</t>
+          <t>12,21; 22,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 14,09</t>
+          <t>6,07; 16,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; -2,57</t>
+          <t>-0,39; 35,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,37; 52,32</t>
+          <t>18,32; 41,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 45,15</t>
+          <t>22,51; 46,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 36,99</t>
+          <t>12,12; 36,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -3,5</t>
+          <t>-1,2; 92,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,59</t>
+          <t>12,29; 20,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 13,77</t>
+          <t>5,75; 14,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 13,08</t>
+          <t>4,0; 13,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 11,89</t>
+          <t>-4,35; 9,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 44,6</t>
+          <t>25,1; 47,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 37,78</t>
+          <t>9,4; 26,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 38,14</t>
+          <t>6,96; 24,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 16,24</t>
+          <t>-10,7; 25,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,91</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>13,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,19%</t>
+          <t>25,71%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 16,48</t>
+          <t>13,23; 18,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,06</t>
+          <t>11,17; 16,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 13,03</t>
+          <t>9,02; 13,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,33; -3,8</t>
+          <t>3,9; 23,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,18; 45,39</t>
+          <t>26,86; 38,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 29,88</t>
+          <t>19,68; 29,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,69; 31,86</t>
+          <t>17,1; 27,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -5,16</t>
+          <t>9,89; 72,41</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,21</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,16</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-4,17</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,64%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>22,28%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>21,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-5,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 13,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 11,6</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 11,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; -1,19</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,0; 37,18</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>15,86; 29,22</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,75; 28,45</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; -1,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,46</t>
+          <t>9,28; 19,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 13,62</t>
+          <t>3,69; 14,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 17,75</t>
+          <t>7,26; 17,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 6,93</t>
+          <t>-9,94; 6,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 42,94</t>
+          <t>17,87; 42,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 23,73</t>
+          <t>5,92; 24,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 35,38</t>
+          <t>12,98; 35,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 16,63</t>
+          <t>-20,53; 16,19</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 21,08</t>
+          <t>12,11; 21,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 21,01</t>
+          <t>12,9; 21,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,95</t>
+          <t>9,87; 18,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 32,65</t>
+          <t>6,95; 33,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,77; 46,34</t>
+          <t>23,28; 45,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 40,8</t>
+          <t>22,93; 41,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 36,46</t>
+          <t>18,18; 38,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 186,56</t>
+          <t>17,02; 196,49</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 19,06</t>
+          <t>9,05; 19,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 22,36</t>
+          <t>11,85; 22,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 16,59</t>
+          <t>6,61; 16,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 35,69</t>
+          <t>-0,59; 34,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,32; 41,55</t>
+          <t>16,88; 42,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,51; 46,96</t>
+          <t>22,18; 47,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 36,75</t>
+          <t>13,13; 35,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 92,83</t>
+          <t>-1,05; 84,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 20,98</t>
+          <t>12,56; 21,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,82</t>
+          <t>6,31; 15,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 13,07</t>
+          <t>3,86; 12,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 9,24</t>
+          <t>-4,17; 9,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,1; 47,24</t>
+          <t>25,51; 47,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 26,55</t>
+          <t>10,42; 27,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 24,77</t>
+          <t>6,64; 23,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 25,68</t>
+          <t>-9,98; 25,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 18,14</t>
+          <t>13,35; 18,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,05</t>
+          <t>11,25; 15,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,72</t>
+          <t>9,14; 13,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 23,07</t>
+          <t>3,84; 21,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,86; 38,63</t>
+          <t>27,26; 38,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,68; 29,71</t>
+          <t>19,91; 29,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,1; 27,02</t>
+          <t>17,13; 26,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 72,41</t>
+          <t>9,4; 65,91</t>
         </is>
       </c>
     </row>
